--- a/models/calculation engines/economic_overlay/outputs/suplhur_contamination_sedimentary_bauxite_only/perct_inventory_sulphur_contaminated_by_depth_bucket.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/suplhur_contamination_sedimentary_bauxite_only/perct_inventory_sulphur_contaminated_by_depth_bucket.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J165"/>
+  <dimension ref="A1:J178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -616,131 +616,111 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="B6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="B8" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="D8" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="E8" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="F8" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="H8" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="I8" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="B9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.6</v>
-      </c>
+      <c r="A9" t="inlineStr"/>
+      <c r="B9" t="inlineStr"/>
+      <c r="C9" t="inlineStr"/>
+      <c r="D9" t="inlineStr"/>
+      <c r="E9" t="inlineStr"/>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -839,68 +819,28 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I13" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J13" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="A13" t="inlineStr"/>
+      <c r="B13" t="inlineStr"/>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr"/>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I14" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J14" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="A14" t="inlineStr"/>
+      <c r="B14" t="inlineStr"/>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
+      <c r="E14" t="inlineStr"/>
+      <c r="F14" t="inlineStr"/>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -936,34 +876,34 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="B16" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="C16" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="D16" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="E16" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="F16" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="G16" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="H16" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="I16" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
       <c r="J16" t="n">
-        <v>0.25</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="17">
@@ -1000,34 +940,34 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1064,514 +1004,454 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="B21" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="C21" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="D21" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="E21" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="F21" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="G21" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="H21" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="I21" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
       <c r="J21" t="n">
-        <v>0.25</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="A25" t="inlineStr"/>
+      <c r="B25" t="inlineStr"/>
+      <c r="C25" t="inlineStr"/>
+      <c r="D25" t="inlineStr"/>
+      <c r="E25" t="inlineStr"/>
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="A29" t="inlineStr"/>
+      <c r="B29" t="inlineStr"/>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="B31" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="F31" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="G31" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0.25</v>
-      </c>
+      <c r="A31" t="inlineStr"/>
+      <c r="B31" t="inlineStr"/>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="inlineStr"/>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B33" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="B35" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -1608,67 +1488,47 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B37" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>0</v>
-      </c>
-      <c r="B38" t="n">
-        <v>0</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
-        <v>0</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
+      <c r="A38" t="inlineStr"/>
+      <c r="B38" t="inlineStr"/>
+      <c r="C38" t="inlineStr"/>
+      <c r="D38" t="inlineStr"/>
+      <c r="E38" t="inlineStr"/>
+      <c r="F38" t="inlineStr"/>
+      <c r="G38" t="inlineStr"/>
+      <c r="H38" t="inlineStr"/>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1703,36 +1563,16 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>0</v>
-      </c>
-      <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>0</v>
-      </c>
-      <c r="G40" t="n">
-        <v>0</v>
-      </c>
-      <c r="H40" t="n">
-        <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
+      <c r="A40" t="inlineStr"/>
+      <c r="B40" t="inlineStr"/>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr"/>
+      <c r="E40" t="inlineStr"/>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr"/>
+      <c r="H40" t="inlineStr"/>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1768,34 +1608,34 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="43">
@@ -1864,34 +1704,34 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="B45" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1960,34 +1800,34 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="B48" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="D48" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="E48" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G48" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="H48" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -2056,34 +1896,34 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="B51" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="C51" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="E51" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="G51" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="H51" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
       <c r="J51" t="n">
-        <v>0.8</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="52">
@@ -2120,34 +1960,34 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="B53" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="C53" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="D53" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="G53" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="H53" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>0.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -2216,34 +2056,34 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B56" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C56" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="57">
@@ -2440,34 +2280,34 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B63" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C63" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D63" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F63" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G63" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I63" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J63" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="64">
@@ -2536,34 +2376,34 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B66" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C66" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D66" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E66" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G66" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I66" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J66" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="67">
@@ -2600,98 +2440,98 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B69" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D69" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G69" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H69" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="71">
@@ -2824,99 +2664,59 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B75" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E75" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G75" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J75" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="B76" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C76" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="E76" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="F76" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="G76" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="H76" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="J76" t="n">
-        <v>0.1</v>
-      </c>
+      <c r="A76" t="inlineStr"/>
+      <c r="B76" t="inlineStr"/>
+      <c r="C76" t="inlineStr"/>
+      <c r="D76" t="inlineStr"/>
+      <c r="E76" t="inlineStr"/>
+      <c r="F76" t="inlineStr"/>
+      <c r="G76" t="inlineStr"/>
+      <c r="H76" t="inlineStr"/>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>0</v>
-      </c>
-      <c r="B77" t="n">
-        <v>0</v>
-      </c>
-      <c r="C77" t="n">
-        <v>0</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
-      </c>
-      <c r="E77" t="n">
-        <v>0</v>
-      </c>
-      <c r="F77" t="n">
-        <v>0</v>
-      </c>
-      <c r="G77" t="n">
-        <v>0</v>
-      </c>
-      <c r="H77" t="n">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>0</v>
-      </c>
+      <c r="A77" t="inlineStr"/>
+      <c r="B77" t="inlineStr"/>
+      <c r="C77" t="inlineStr"/>
+      <c r="D77" t="inlineStr"/>
+      <c r="E77" t="inlineStr"/>
+      <c r="F77" t="inlineStr"/>
+      <c r="G77" t="inlineStr"/>
+      <c r="H77" t="inlineStr"/>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2952,66 +2752,66 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B79" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C79" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B80" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C80" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="81">
@@ -3048,66 +2848,66 @@
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="B82" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C82" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B83" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="84">
@@ -3304,34 +3104,34 @@
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B90" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C90" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="91">
@@ -3368,66 +3168,66 @@
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B92" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C92" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D92" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E92" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G92" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H92" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B93" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D93" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E93" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F93" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G93" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H93" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J93" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3464,34 +3264,34 @@
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="B95" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="C95" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="E95" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F95" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="G95" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H95" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -3848,98 +3648,98 @@
     </row>
     <row r="107">
       <c r="A107" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B107" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C107" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B109" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C109" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="110">
@@ -4008,66 +3808,66 @@
     </row>
     <row r="112">
       <c r="A112" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="B112" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="C112" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B113" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C113" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="114">
@@ -4104,67 +3904,47 @@
     </row>
     <row r="115">
       <c r="A115" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B115" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D115" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E115" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F115" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G115" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H115" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J115" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>0</v>
-      </c>
-      <c r="B116" t="n">
-        <v>0</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0</v>
-      </c>
-      <c r="D116" t="n">
-        <v>0</v>
-      </c>
-      <c r="E116" t="n">
-        <v>0</v>
-      </c>
-      <c r="F116" t="n">
-        <v>0</v>
-      </c>
-      <c r="G116" t="n">
-        <v>0</v>
-      </c>
-      <c r="H116" t="n">
-        <v>0</v>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
-      <c r="J116" t="n">
-        <v>0</v>
-      </c>
+      <c r="A116" t="inlineStr"/>
+      <c r="B116" t="inlineStr"/>
+      <c r="C116" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr"/>
+      <c r="F116" t="inlineStr"/>
+      <c r="G116" t="inlineStr"/>
+      <c r="H116" t="inlineStr"/>
+      <c r="I116" t="inlineStr"/>
+      <c r="J116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" t="n">
@@ -4231,36 +4011,16 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>0</v>
-      </c>
-      <c r="B119" t="n">
-        <v>0</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0</v>
-      </c>
-      <c r="D119" t="n">
-        <v>0</v>
-      </c>
-      <c r="E119" t="n">
-        <v>0</v>
-      </c>
-      <c r="F119" t="n">
-        <v>0</v>
-      </c>
-      <c r="G119" t="n">
-        <v>0</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
+      <c r="A119" t="inlineStr"/>
+      <c r="B119" t="inlineStr"/>
+      <c r="C119" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr"/>
+      <c r="F119" t="inlineStr"/>
+      <c r="G119" t="inlineStr"/>
+      <c r="H119" t="inlineStr"/>
+      <c r="I119" t="inlineStr"/>
+      <c r="J119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" t="n">
@@ -4296,66 +4056,66 @@
     </row>
     <row r="121">
       <c r="A121" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B121" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C121" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B122" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C122" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="123">
@@ -4456,226 +4216,226 @@
     </row>
     <row r="126">
       <c r="A126" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="B126" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="C126" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B127" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C127" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D127" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E127" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G127" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H127" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B128" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C128" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E128" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F128" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G128" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I128" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J128" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B129" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C129" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B130" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C130" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B131" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E131" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F131" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G131" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H131" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B132" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C132" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="133">
@@ -4743,36 +4503,16 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>0</v>
-      </c>
-      <c r="B135" t="n">
-        <v>0</v>
-      </c>
-      <c r="C135" t="n">
-        <v>0</v>
-      </c>
-      <c r="D135" t="n">
-        <v>0</v>
-      </c>
-      <c r="E135" t="n">
-        <v>0</v>
-      </c>
-      <c r="F135" t="n">
-        <v>0</v>
-      </c>
-      <c r="G135" t="n">
-        <v>0</v>
-      </c>
-      <c r="H135" t="n">
-        <v>0</v>
-      </c>
-      <c r="I135" t="n">
-        <v>0</v>
-      </c>
-      <c r="J135" t="n">
-        <v>0</v>
-      </c>
+      <c r="A135" t="inlineStr"/>
+      <c r="B135" t="inlineStr"/>
+      <c r="C135" t="inlineStr"/>
+      <c r="D135" t="inlineStr"/>
+      <c r="E135" t="inlineStr"/>
+      <c r="F135" t="inlineStr"/>
+      <c r="G135" t="inlineStr"/>
+      <c r="H135" t="inlineStr"/>
+      <c r="I135" t="inlineStr"/>
+      <c r="J135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" t="n">
@@ -4872,130 +4612,130 @@
     </row>
     <row r="139">
       <c r="A139" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="B139" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="D139" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="E139" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="G139" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="H139" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>0.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="B140" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="C140" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="B141" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="C141" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B142" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C142" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="143">
@@ -5192,34 +4932,34 @@
     </row>
     <row r="149">
       <c r="A149" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B149" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C149" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="150">
@@ -5448,34 +5188,34 @@
     </row>
     <row r="157">
       <c r="A157" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="B157" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="C157" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="158">
@@ -5544,34 +5284,34 @@
     </row>
     <row r="160">
       <c r="A160" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B160" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C160" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J160" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="161">
@@ -5672,65 +5412,481 @@
     </row>
     <row r="164">
       <c r="A164" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B164" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C164" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="B165" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C165" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="J165" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+      <c r="C166" t="n">
+        <v>0</v>
+      </c>
+      <c r="D166" t="n">
+        <v>0</v>
+      </c>
+      <c r="E166" t="n">
+        <v>0</v>
+      </c>
+      <c r="F166" t="n">
+        <v>0</v>
+      </c>
+      <c r="G166" t="n">
+        <v>0</v>
+      </c>
+      <c r="H166" t="n">
+        <v>0</v>
+      </c>
+      <c r="I166" t="n">
+        <v>0</v>
+      </c>
+      <c r="J166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+      <c r="C167" t="n">
+        <v>0</v>
+      </c>
+      <c r="D167" t="n">
+        <v>0</v>
+      </c>
+      <c r="E167" t="n">
+        <v>0</v>
+      </c>
+      <c r="F167" t="n">
+        <v>0</v>
+      </c>
+      <c r="G167" t="n">
+        <v>0</v>
+      </c>
+      <c r="H167" t="n">
+        <v>0</v>
+      </c>
+      <c r="I167" t="n">
+        <v>0</v>
+      </c>
+      <c r="J167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0</v>
+      </c>
+      <c r="D168" t="n">
+        <v>0</v>
+      </c>
+      <c r="E168" t="n">
+        <v>0</v>
+      </c>
+      <c r="F168" t="n">
+        <v>0</v>
+      </c>
+      <c r="G168" t="n">
+        <v>0</v>
+      </c>
+      <c r="H168" t="n">
+        <v>0</v>
+      </c>
+      <c r="I168" t="n">
+        <v>0</v>
+      </c>
+      <c r="J168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+      <c r="C169" t="n">
+        <v>0</v>
+      </c>
+      <c r="D169" t="n">
+        <v>0</v>
+      </c>
+      <c r="E169" t="n">
+        <v>0</v>
+      </c>
+      <c r="F169" t="n">
+        <v>0</v>
+      </c>
+      <c r="G169" t="n">
+        <v>0</v>
+      </c>
+      <c r="H169" t="n">
+        <v>0</v>
+      </c>
+      <c r="I169" t="n">
+        <v>0</v>
+      </c>
+      <c r="J169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C170" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D170" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E170" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F170" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G170" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H170" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I170" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J170" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+      <c r="C171" t="n">
+        <v>0</v>
+      </c>
+      <c r="D171" t="n">
+        <v>0</v>
+      </c>
+      <c r="E171" t="n">
+        <v>0</v>
+      </c>
+      <c r="F171" t="n">
+        <v>0</v>
+      </c>
+      <c r="G171" t="n">
+        <v>0</v>
+      </c>
+      <c r="H171" t="n">
+        <v>0</v>
+      </c>
+      <c r="I171" t="n">
+        <v>0</v>
+      </c>
+      <c r="J171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="D172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="E172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="F172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="G172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="I172" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="J172" t="n">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0</v>
+      </c>
+      <c r="D173" t="n">
+        <v>0</v>
+      </c>
+      <c r="E173" t="n">
+        <v>0</v>
+      </c>
+      <c r="F173" t="n">
+        <v>0</v>
+      </c>
+      <c r="G173" t="n">
+        <v>0</v>
+      </c>
+      <c r="H173" t="n">
+        <v>0</v>
+      </c>
+      <c r="I173" t="n">
+        <v>0</v>
+      </c>
+      <c r="J173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0</v>
+      </c>
+      <c r="D174" t="n">
+        <v>0</v>
+      </c>
+      <c r="E174" t="n">
+        <v>0</v>
+      </c>
+      <c r="F174" t="n">
+        <v>0</v>
+      </c>
+      <c r="G174" t="n">
+        <v>0</v>
+      </c>
+      <c r="H174" t="n">
+        <v>0</v>
+      </c>
+      <c r="I174" t="n">
+        <v>0</v>
+      </c>
+      <c r="J174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="C175" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="D175" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E175" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F175" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G175" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H175" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I175" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="J175" t="n">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+      <c r="C176" t="n">
+        <v>0</v>
+      </c>
+      <c r="D176" t="n">
+        <v>0</v>
+      </c>
+      <c r="E176" t="n">
+        <v>0</v>
+      </c>
+      <c r="F176" t="n">
+        <v>0</v>
+      </c>
+      <c r="G176" t="n">
+        <v>0</v>
+      </c>
+      <c r="H176" t="n">
+        <v>0</v>
+      </c>
+      <c r="I176" t="n">
+        <v>0</v>
+      </c>
+      <c r="J176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C177" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="D177" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="E177" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F177" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="G177" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="H177" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="I177" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="J177" t="n">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0</v>
+      </c>
+      <c r="D178" t="n">
+        <v>0</v>
+      </c>
+      <c r="E178" t="n">
+        <v>0</v>
+      </c>
+      <c r="F178" t="n">
+        <v>0</v>
+      </c>
+      <c r="G178" t="n">
+        <v>0</v>
+      </c>
+      <c r="H178" t="n">
+        <v>0</v>
+      </c>
+      <c r="I178" t="n">
+        <v>0</v>
+      </c>
+      <c r="J178" t="n">
         <v>0</v>
       </c>
     </row>
